--- a/Project 1 - US Debt Tracker/US Debt Tracker Project.xlsx
+++ b/Project 1 - US Debt Tracker/US Debt Tracker Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\12. Projects\1. US Dept Tracker - Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/Project 1 - US Debt Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1649C24-C8FA-4D30-B3B4-B570E4FED856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{B1649C24-C8FA-4D30-B3B4-B570E4FED856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94484E0D-C98A-4874-BE49-D82BD458B46A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
@@ -694,9 +694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -734,7 +734,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -840,7 +840,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -982,7 +982,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1117,11 +1117,702 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:KBH4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:KBH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="27" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="46" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="53" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="66" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="67" max="73" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="88" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="89" max="108" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="109" max="114" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="115" max="130" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="131" max="137" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="138" max="152" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="153" max="157" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="158" max="171" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="172" max="178" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="179" max="193" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="194" max="199" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="200" max="214" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="215" max="220" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="221" max="236" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="237" max="243" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="244" max="255" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="256" max="262" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="263" max="277" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="278" max="282" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="283" max="298" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="299" max="305" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="306" max="318" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="319" max="325" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="326" max="339" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="340" max="360" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="361" max="366" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="367" max="382" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="383" max="388" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="389" max="403" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="404" max="409" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="410" max="424" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="425" max="431" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="432" max="446" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="447" max="451" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="452" max="466" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="467" max="473" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="474" max="489" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="490" max="496" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="497" max="508" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="509" max="515" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="516" max="529" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="530" max="534" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="535" max="549" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="550" max="556" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="557" max="569" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="570" max="575" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="576" max="589" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="590" max="611" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="612" max="617" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="618" max="633" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="634" max="638" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="639" max="654" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="655" max="661" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="662" max="676" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="677" max="683" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="684" max="697" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="698" max="703" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="704" max="718" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="719" max="725" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="726" max="741" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="742" max="747" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="748" max="761" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="762" max="766" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="767" max="781" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="782" max="787" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="788" max="802" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="803" max="808" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="809" max="821" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="822" max="827" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="828" max="842" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="843" max="864" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="865" max="869" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="870" max="884" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="885" max="891" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="892" max="907" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="908" max="913" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="914" max="928" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="929" max="933" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="934" max="948" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="949" max="955" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="956" max="970" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="971" max="976" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="977" max="991" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="992" max="997" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="998" max="1010" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1011" max="1016" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1017" max="1031" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1037" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1052" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1053" max="1057" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1058" max="1070" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1071" max="1077" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1078" max="1093" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1094" max="1114" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1115" max="1118" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1119" max="1134" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1135" max="1141" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1142" max="1157" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1158" max="1162" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1163" max="1177" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1178" max="1183" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1184" max="1198" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1199" max="1205" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1206" max="1220" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1221" max="1226" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1227" max="1241" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1242" max="1248" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1249" max="1260" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1261" max="1267" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1268" max="1282" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1288" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1302" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1303" max="1308" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1309" max="1322" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1323" max="1329" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1330" max="1345" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1346" max="1365" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1366" max="1370" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1371" max="1386" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1387" max="1393" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1394" max="1409" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1410" max="1413" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1414" max="1428" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1429" max="1435" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1436" max="1450" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1451" max="1457" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1458" max="1472" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1473" max="1477" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1478" max="1493" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1494" max="1500" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1501" max="1512" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1513" max="1519" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1520" max="1534" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1539" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1553" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1554" max="1560" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1561" max="1573" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1574" max="1580" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1581" max="1595" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1596" max="1615" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1616" max="1621" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1622" max="1637" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1638" max="1644" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1645" max="1659" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1660" max="1664" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1665" max="1679" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1680" max="1686" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1687" max="1701" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1702" max="1707" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1708" max="1722" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1723" max="1728" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1729" max="1744" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1745" max="1751" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1752" max="1764" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1765" max="1771" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1772" max="1785" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1786" max="1790" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1805" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1812" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1813" max="1825" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1826" max="1831" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1832" max="1845" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1846" max="1867" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1868" max="1873" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1874" max="1889" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1890" max="1894" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1895" max="1910" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1911" max="1917" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1918" max="1932" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1933" max="1939" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1940" max="1953" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1954" max="1959" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1960" max="1974" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1975" max="1981" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1982" max="1997" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1998" max="2003" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2004" max="2016" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2017" max="2022" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2023" max="2036" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2037" max="2042" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2043" max="2057" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2064" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2065" max="2077" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2078" max="2082" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2083" max="2097" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2098" max="2119" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2120" max="2125" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2126" max="2140" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2141" max="2146" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2147" max="2162" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2163" max="2168" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2169" max="2183" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2184" max="2189" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2190" max="2203" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2204" max="2210" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2211" max="2225" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2226" max="2232" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2233" max="2248" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2249" max="2253" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2254" max="2267" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2268" max="2272" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2273" max="2287" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2288" max="2293" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2294" max="2308" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2314" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2327" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2328" max="2333" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2334" max="2348" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2349" max="2370" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2371" max="2375" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2376" max="2390" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2391" max="2397" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2398" max="2413" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2414" max="2419" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2420" max="2434" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2435" max="2439" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2440" max="2454" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2455" max="2461" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2462" max="2476" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2477" max="2483" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2484" max="2498" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2499" max="2504" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2505" max="2517" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2518" max="2523" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2524" max="2538" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2539" max="2544" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2545" max="2559" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2564" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2577" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2578" max="2584" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2585" max="2600" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2601" max="2621" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2622" max="2625" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2626" max="2641" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2642" max="2648" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2649" max="2664" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2665" max="2669" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2670" max="2684" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2685" max="2690" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2691" max="2705" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2706" max="2712" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2713" max="2727" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2728" max="2733" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2734" max="2748" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2749" max="2755" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2756" max="2768" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2769" max="2775" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2776" max="2790" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2791" max="2795" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2796" max="2809" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2810" max="2816" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2829" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2836" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2837" max="2851" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2852" max="2871" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2872" max="2877" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2878" max="2893" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2894" max="2900" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2901" max="2915" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2916" max="2920" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2921" max="2935" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2936" max="2942" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2943" max="2957" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2958" max="2963" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2964" max="2978" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2979" max="2984" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2985" max="3000" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3001" max="3007" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3008" max="3019" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3020" max="3026" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3027" max="3041" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3042" max="3046" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3047" max="3062" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3063" max="3069" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3070" max="3082" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3089" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3090" max="3103" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3104" max="3124" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3125" max="3130" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3131" max="3146" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3147" max="3152" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3153" max="3167" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3168" max="3173" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3174" max="3188" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3189" max="3195" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3196" max="3210" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3211" max="3215" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3216" max="3230" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3231" max="3237" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3238" max="3253" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3254" max="3260" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3261" max="3272" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3273" max="3279" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3280" max="3293" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3294" max="3298" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3299" max="3313" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3314" max="3320" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3321" max="3333" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3339" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3353" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3354" max="3375" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3376" max="3381" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3382" max="3397" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3398" max="3402" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3403" max="3418" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3419" max="3425" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3426" max="3440" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3441" max="3447" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3448" max="3461" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3462" max="3467" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3468" max="3482" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3483" max="3489" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3490" max="3505" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3506" max="3511" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3512" max="3524" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3525" max="3530" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3531" max="3544" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3545" max="3550" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3551" max="3565" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3566" max="3572" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3573" max="3585" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3590" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3605" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3627" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3628" max="3633" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3634" max="3648" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3649" max="3654" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3655" max="3670" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3671" max="3676" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3677" max="3691" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3692" max="3697" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3698" max="3711" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3712" max="3718" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3719" max="3733" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3734" max="3740" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3741" max="3756" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3757" max="3761" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3762" max="3775" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3776" max="3781" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3782" max="3796" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3797" max="3802" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3803" max="3817" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3818" max="3822" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3823" max="3835" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3836" max="3842" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3858" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3859" max="3879" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3880" max="3883" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3884" max="3899" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3900" max="3906" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3907" max="3922" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3923" max="3927" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3928" max="3942" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3943" max="3948" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3949" max="3963" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3964" max="3970" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3971" max="3985" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3986" max="3991" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3992" max="4006" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4007" max="4013" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4014" max="4025" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4026" max="4032" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4033" max="4047" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4048" max="4053" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4054" max="4067" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4068" max="4073" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4074" max="4087" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4088" max="4094" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4110" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4130" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4131" max="4135" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4136" max="4151" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4152" max="4158" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4159" max="4174" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4175" max="4178" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4179" max="4193" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4194" max="4200" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4201" max="4215" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4216" max="4222" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4223" max="4237" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4238" max="4242" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4243" max="4258" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4259" max="4265" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4266" max="4277" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4278" max="4284" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4285" max="4299" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4300" max="4304" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4305" max="4318" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4319" max="4325" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4326" max="4338" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4339" max="4345" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4346" max="4360" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4380" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4381" max="4386" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4387" max="4402" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4403" max="4409" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4410" max="4424" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4425" max="4429" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4430" max="4444" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4445" max="4451" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4452" max="4466" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4467" max="4472" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4473" max="4487" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4488" max="4492" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4493" max="4508" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4509" max="4515" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4516" max="4527" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4528" max="4534" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4535" max="4549" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4550" max="4554" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4555" max="4570" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4571" max="4577" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4578" max="4590" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4591" max="4597" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4598" max="4611" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4632" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4633" max="4638" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4639" max="4654" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4655" max="4660" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4661" max="4675" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4676" max="4681" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4682" max="4696" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4697" max="4703" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4704" max="4718" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4719" max="4723" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4724" max="4738" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4739" max="4745" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4746" max="4761" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4762" max="4768" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4769" max="4781" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4782" max="4787" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4788" max="4801" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4802" max="4807" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4808" max="4822" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4823" max="4829" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4830" max="4842" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4843" max="4847" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4848" max="4862" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4884" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4885" max="4890" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4891" max="4905" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4906" max="4911" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4912" max="4927" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4928" max="4933" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4934" max="4948" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4949" max="4954" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4955" max="4968" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4969" max="4975" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4976" max="4990" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4991" max="4997" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4998" max="5013" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5014" max="5018" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5019" max="5032" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5033" max="5037" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5038" max="5052" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5053" max="5058" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5059" max="5073" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5074" max="5079" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5080" max="5092" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5093" max="5098" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5099" max="5113" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5114" max="5135" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5136" max="5140" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5141" max="5155" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5156" max="5162" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5163" max="5178" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5179" max="5184" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5185" max="5199" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5200" max="5204" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5205" max="5219" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5220" max="5226" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5227" max="5241" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5242" max="5248" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5249" max="5263" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5264" max="5269" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5270" max="5282" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5283" max="5288" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5289" max="5303" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5304" max="5309" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5310" max="5323" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5324" max="5328" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5329" max="5341" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5342" max="5348" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5349" max="5364" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5365" max="5383" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5387" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5403" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5404" max="5410" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5411" max="5426" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5427" max="5431" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5432" max="5446" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5447" max="5452" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5453" max="5467" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5468" max="5474" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5475" max="5489" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5490" max="5495" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5496" max="5510" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5511" max="5517" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5518" max="5529" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5530" max="5536" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5537" max="5551" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5552" max="5556" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5557" max="5570" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5571" max="5576" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5577" max="5590" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5591" max="5596" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5597" max="5612" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5613" max="5632" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5637" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5653" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5660" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5661" max="5676" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5677" max="5680" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5681" max="5695" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5696" max="5702" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5703" max="5717" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5718" max="5724" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5725" max="5739" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5740" max="5744" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5745" max="5760" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5761" max="5767" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5768" max="5779" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5780" max="5786" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5787" max="5801" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5802" max="5806" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5807" max="5822" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5823" max="5829" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5830" max="5841" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5842" max="5848" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5849" max="5862" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5863" max="5883" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5884" max="5889" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5905" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5906" max="5910" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5911" max="5925" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5926" max="5931" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5932" max="5946" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5947" max="5953" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5954" max="5968" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5969" max="5973" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5974" max="5988" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5989" max="5995" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5996" max="6010" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6011" max="6017" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6018" max="6029" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6030" max="6036" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6037" max="6050" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6051" max="6055" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6056" max="6070" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6071" max="6077" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6078" max="6090" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6091" max="6096" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6097" max="6110" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6111" max="6132" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6133" max="6138" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6139" max="6154" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6159" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6160" max="6175" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6176" max="6182" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6183" max="6197" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6198" max="6204" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6205" max="6217" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6218" max="6223" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6224" max="6238" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6239" max="6245" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6246" max="6261" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6262" max="6266" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6267" max="6279" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6280" max="6285" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6286" max="6299" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6300" max="6304" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6305" max="6317" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6318" max="6324" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6325" max="6337" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6338" max="6342" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6343" max="6357" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6358" max="6379" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6380" max="6385" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6386" max="6400" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6406" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6422" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6423" max="6428" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6429" max="6443" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6444" max="6449" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6450" max="6463" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6464" max="6470" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6471" max="6485" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6486" max="6492" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6493" max="6508" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6509" max="6513" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6514" max="6527" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6528" max="6532" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6533" max="6546" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6547" max="6552" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6553" max="6567" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6568" max="6573" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6574" max="6586" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6587" max="6592" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6593" max="6607" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6608" max="6629" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6630" max="6634" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6635" max="6649" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6650" max="6656" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6672" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6673" max="6678" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6679" max="6693" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6694" max="6698" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6699" max="6713" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6714" max="6720" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6721" max="6735" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6736" max="6742" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6743" max="6757" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6758" max="6763" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6764" max="6776" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6777" max="6783" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6784" max="6798" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6799" max="6804" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6805" max="6818" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6819" max="6824" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6825" max="6837" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6838" max="6844" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6845" max="6860" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6861" max="6880" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6881" max="6885" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6886" max="6901" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6902" max="6908" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6909" max="6924" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6928" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6929" max="6943" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6944" max="6950" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6951" max="6965" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6966" max="6972" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6973" max="6987" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6988" max="6992" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6993" max="7008" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7009" max="7015" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7016" max="7027" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7028" max="7034" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7035" max="7049" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7050" max="7054" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7055" max="7068" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7069" max="7075" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7076" max="7088" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7089" max="7095" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7096" max="7110" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7111" max="7130" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7131" max="7136" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7137" max="7152" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7153" max="7159" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7160" max="7174" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7179" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7194" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7195" max="7201" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7202" max="7216" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7217" max="7222" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7223" max="7237" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7238" max="7243" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7244" max="7259" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7260" max="7266" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7267" max="7278" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7279" max="7285" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7286" max="7300" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7301" max="7305" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7306" max="7321" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7322" max="7328" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7329" max="7341" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7342" max="7348" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7349" max="7362" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7363" max="7383" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7384" max="7389" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7390" max="7405" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7406" max="7411" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7412" max="7426" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7432" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7447" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7448" max="7454" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7455" max="7469" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7470" max="7474" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7475" max="7489" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7490" max="7496" width="8.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7496" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
